--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560518.539378299</v>
+        <v>1543418.53528707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8259463.10431795</v>
+        <v>8112558.798638829</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11305628.77368752</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5829472.79879011</v>
+        <v>5790007.41446905</v>
       </c>
     </row>
     <row r="11">
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>158.7764127008034</v>
+        <v>151.8459993239614</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -8708,7 +8710,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.0361980485666</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>104.5681348407838</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M12" t="n">
-        <v>119.8645420961355</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>114.9547275322108</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>53.19961159302936</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,25 +8850,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L13" t="n">
-        <v>112.6151844553554</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M13" t="n">
-        <v>116.6562921217222</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N13" t="n">
-        <v>105.4160526393503</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O13" t="n">
-        <v>116.1870466259599</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P13" t="n">
-        <v>115.4585122232648</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>86.60971554679904</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -8945,7 +8947,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.8695008945622</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.08619102011275</v>
+        <v>10.12574714858492</v>
       </c>
       <c r="J15" t="n">
-        <v>32.40143768677945</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>72.05901102708927</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M15" t="n">
-        <v>72.64325335191492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9026,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.54558510613427</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.55923245950886</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>34.57706919064813</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L16" t="n">
-        <v>40.44848730135104</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M16" t="n">
-        <v>44.48959496771781</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N16" t="n">
-        <v>33.24935548534594</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O16" t="n">
-        <v>44.02034947195554</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P16" t="n">
-        <v>43.29181506926037</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.06881264955859</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.60971554679904</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -9182,7 +9184,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>127.8695008945622</v>
+        <v>119.342339714888</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5.08619102011275</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>32.40143768677945</v>
+        <v>23.87427650710517</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>58.63498473511576</v>
       </c>
       <c r="L18" t="n">
-        <v>69.06359920977079</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>28.37836192377178</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>39.538218434443</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440242</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>32.55923245950886</v>
+        <v>24.03207127983458</v>
       </c>
       <c r="K19" t="n">
-        <v>34.57706919064813</v>
+        <v>26.04990801097385</v>
       </c>
       <c r="L19" t="n">
-        <v>40.44848730135104</v>
+        <v>31.92132612167676</v>
       </c>
       <c r="M19" t="n">
-        <v>44.48959496771781</v>
+        <v>35.96243378804353</v>
       </c>
       <c r="N19" t="n">
-        <v>33.24935548534594</v>
+        <v>24.72219430567166</v>
       </c>
       <c r="O19" t="n">
-        <v>44.02034947195554</v>
+        <v>35.49318829228126</v>
       </c>
       <c r="P19" t="n">
-        <v>43.29181506926037</v>
+        <v>34.76465388958609</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.06881264955859</v>
+        <v>48.54165146988431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.60971554679904</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9419,7 +9421,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.8695008945622</v>
+        <v>119.342339714888</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.40143768677945</v>
+        <v>23.87427650710517</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>44.11819079998693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>52.13525784409008</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476872</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.54558510613427</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440242</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.55923245950886</v>
+        <v>24.03207127983458</v>
       </c>
       <c r="K22" t="n">
-        <v>34.57706919064813</v>
+        <v>26.04990801097385</v>
       </c>
       <c r="L22" t="n">
-        <v>40.44848730135104</v>
+        <v>31.92132612167676</v>
       </c>
       <c r="M22" t="n">
-        <v>44.48959496771781</v>
+        <v>35.96243378804353</v>
       </c>
       <c r="N22" t="n">
-        <v>68.41636118232881</v>
+        <v>24.72219430567166</v>
       </c>
       <c r="O22" t="n">
-        <v>44.02034947195554</v>
+        <v>35.49318829228126</v>
       </c>
       <c r="P22" t="n">
-        <v>43.29181506926037</v>
+        <v>34.76465388958609</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.06881264955859</v>
+        <v>48.54165146988431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>86.60971554679904</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -9656,7 +9658,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>127.8695008945622</v>
+        <v>119.342339714888</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.08619102011275</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.40143768677945</v>
+        <v>23.87427650710517</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>59.34792554063095</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -9729,16 +9731,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>48.16005546455719</v>
+        <v>39.63289428488291</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.54558510613427</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440242</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.55923245950886</v>
+        <v>24.03207127983458</v>
       </c>
       <c r="K25" t="n">
-        <v>34.57706919064813</v>
+        <v>26.04990801097385</v>
       </c>
       <c r="L25" t="n">
-        <v>40.44848730135104</v>
+        <v>31.92132612167676</v>
       </c>
       <c r="M25" t="n">
-        <v>44.48959496771781</v>
+        <v>35.96243378804353</v>
       </c>
       <c r="N25" t="n">
-        <v>33.24935548534594</v>
+        <v>24.72219430567166</v>
       </c>
       <c r="O25" t="n">
-        <v>88.09057099590439</v>
+        <v>35.49318829228126</v>
       </c>
       <c r="P25" t="n">
-        <v>43.29181506926037</v>
+        <v>34.76465388958609</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.06881264955859</v>
+        <v>48.54165146988431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>132.9090570230344</v>
+        <v>145.487477725746</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,10 +9956,10 @@
         <v>37.44099381525162</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294392</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9966,13 +9968,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>53.19961159302936</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.58514123460644</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10048,7 +10050,7 @@
         <v>49.05990560042771</v>
       </c>
       <c r="P28" t="n">
-        <v>90.04979986172819</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q28" t="n">
         <v>62.10836877803077</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.70238736347565</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10130,7 +10132,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.96217271123885</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>37.44099381525186</v>
       </c>
       <c r="K30" t="n">
-        <v>44.46276994603026</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>4.790516758807684</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.94507923191823</v>
       </c>
       <c r="O30" t="n">
-        <v>5.252727281233803</v>
+        <v>53.19961159302936</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>44.57777456291517</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R30" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -10285,10 +10287,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3844868859369797</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.16148446623521</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.70238736347565</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
         <v>220.0898510449805</v>
@@ -10367,7 +10369,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.96217271123885</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10427,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K33" t="n">
-        <v>47.83187969491128</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L33" t="n">
-        <v>1.210862616663547</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>5.252727281233803</v>
+        <v>129.8831802079437</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.638256922810882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>8.335986800753318</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -10522,10 +10524,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3844868859369797</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.16148446623521</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.70238736347565</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K35" t="n">
         <v>220.0898510449805</v>
@@ -10604,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.96217271123885</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>0.497921811148359</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>4.790516758807684</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O36" t="n">
-        <v>5.252727281233803</v>
+        <v>129.8831802079437</v>
       </c>
       <c r="P36" t="n">
-        <v>43.96484813488115</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R36" t="n">
-        <v>8.335986800753318</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -10759,10 +10761,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3844868859369797</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.16148446623521</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.70238736347565</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -10841,7 +10843,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.96217271123885</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>50.4645750259065</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L39" t="n">
-        <v>1.210862616663547</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>106.5510377629819</v>
       </c>
       <c r="O39" t="n">
-        <v>5.252727281233803</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.638256922810882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -10996,10 +10998,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3844868859369797</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.16148446623521</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>60.93232306088633</v>
+        <v>144.6403758334578</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11078,7 +11080,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.1921084086495</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.72404520086674</v>
+        <v>90.43209797343886</v>
       </c>
       <c r="K42" t="n">
-        <v>17.72785750855904</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>18.44079831407423</v>
+        <v>102.1488510866463</v>
       </c>
       <c r="M42" t="n">
-        <v>93.70894791375883</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>11.22813061753335</v>
+        <v>94.93618339010547</v>
       </c>
       <c r="O42" t="n">
-        <v>22.48266297864448</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110241</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.881839973596158</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>8.899676704735427</v>
+        <v>92.60772947730754</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11233,10 +11235,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>17.61442258334766</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.39142016364589</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11315,7 +11317,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343886</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -11382,19 +11384,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>105.7285052287905</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>106.1907157512158</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110241</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>103.5762453927937</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>92.60772947730754</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -11470,7 +11472,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.4643498375978</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>343.0033999451247</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>332.4135497948001</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>359.660878246379</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>384.6065539158286</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>393.0332456892522</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>317.2053102898843</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>188.2063977445231</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5996261152668</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>186.7505777603625</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8263577382485</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>229.0761610819536</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>305.482766644252</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9714768915302</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>347.4616088525862</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.9684468301707</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.2636918239845</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>150.4390071624329</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>125.1755737387559</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>135.3755886295181</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>122.799720567501</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>115.0740253373278</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>89.96595241061361</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>67.12714102553223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.88834232676028</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>149.413679277955</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>177.8952368689388</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>203.671890255092</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>210.5310953235424</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>229.4254913350368</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>183.5034933775946</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.4132039514215</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.5624883560544</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>144.977329272745</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>126.3459811923295</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>124.1644708206863</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1515561970484</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>145.7214875325759</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9576806815567</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>133.1809831013754</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>71.08968829078992</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.89255142581153</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.0238995512866</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>201.7471062110894</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>205.6760976023986</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>264.0495375306081</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>229.8681514979451</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>264.2535065107081</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4401635631543</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.3151615262119</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.2976526835934</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>270.8367027911203</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>260.2468526407957</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>287.4941810923746</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>312.4398567618242</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>320.8665485352478</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>245.0386131358799</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>116.0397005905187</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.43292896126243</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>114.5838806063581</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>128.6596605842441</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>156.9094639279492</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>233.3160694902477</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>254.8047797375258</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>275.2949116985818</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>291.8017496761663</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.09699466998009</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>78.27231000842849</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>53.0088765847515</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>63.2088914755137</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>50.63302341349663</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>42.90732818332339</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>17.79925525660921</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.721645172755885</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>77.24698212395057</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>105.7285397149344</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>131.5051931010876</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>138.364398169538</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>157.2587941810324</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>111.3367962235902</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>111.2465067974171</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.39579120205005</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>72.81063211874059</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>54.17928403832511</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>51.99777366668192</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>50.984859043044</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>73.55479037857151</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>67.79098352755233</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>61.01428594737104</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.85720239728224</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>129.580409057085</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>133.5094004483942</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>191.8828403766036</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>157.7014543439408</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>192.0868093567038</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>131.2734664091499</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.1484643722075</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.2976526835934</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8367027911203</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2468526407957</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>287.4941810923746</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4398567618242</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>320.8665485352478</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>245.0386131358799</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>116.0397005905187</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.43292896126243</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S17" t="n">
-        <v>114.5838806063581</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>128.6596605842441</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>156.9094639279492</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3160694902477</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8047797375258</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X17" t="n">
-        <v>275.2949116985818</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8017496761663</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.09699466998009</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C18" t="n">
-        <v>78.27231000842849</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D18" t="n">
-        <v>53.0088765847515</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E18" t="n">
-        <v>63.2088914755137</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F18" t="n">
-        <v>50.63302341349663</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G18" t="n">
-        <v>42.90732818332339</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H18" t="n">
-        <v>17.79925525660921</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.721645172755885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>77.24698212395057</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T18" t="n">
-        <v>105.7285397149344</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U18" t="n">
-        <v>131.5051931010876</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
-        <v>138.364398169538</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W18" t="n">
-        <v>157.2587941810324</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X18" t="n">
-        <v>111.3367962235902</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.2465067974171</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.39579120205005</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C19" t="n">
-        <v>72.81063211874059</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D19" t="n">
-        <v>54.17928403832511</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E19" t="n">
-        <v>51.99777366668192</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F19" t="n">
-        <v>50.984859043044</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G19" t="n">
-        <v>73.55479037857151</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H19" t="n">
-        <v>67.79098352755233</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I19" t="n">
-        <v>61.01428594737104</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.85720239728224</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S19" t="n">
-        <v>129.580409057085</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>133.5094004483942</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8828403766036</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7014543439408</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W19" t="n">
-        <v>192.0868093567038</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X19" t="n">
-        <v>131.2734664091499</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1484643722075</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.2976526835934</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8367027911203</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2468526407957</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>287.4941810923746</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4398567618242</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>320.8665485352478</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>245.0386131358799</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>116.0397005905187</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.43292896126243</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S20" t="n">
-        <v>114.5838806063581</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>128.6596605842441</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>156.9094639279492</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3160694902477</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8047797375258</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X20" t="n">
-        <v>275.2949116985818</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8017496761663</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.09699466998009</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C21" t="n">
-        <v>78.27231000842849</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D21" t="n">
-        <v>53.0088765847515</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E21" t="n">
-        <v>63.2088914755137</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F21" t="n">
-        <v>50.63302341349663</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G21" t="n">
-        <v>42.90732818332339</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H21" t="n">
-        <v>17.79925525660921</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.721645172755885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>77.24698212395057</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T21" t="n">
-        <v>105.7285397149344</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U21" t="n">
-        <v>131.5051931010876</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
-        <v>138.364398169538</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W21" t="n">
-        <v>157.2587941810324</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X21" t="n">
-        <v>111.3367962235902</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>111.2465067974171</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.39579120205005</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C22" t="n">
-        <v>72.81063211874059</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D22" t="n">
-        <v>54.17928403832511</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E22" t="n">
-        <v>51.99777366668192</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F22" t="n">
-        <v>50.984859043044</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G22" t="n">
-        <v>73.55479037857151</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H22" t="n">
-        <v>67.79098352755233</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I22" t="n">
-        <v>61.01428594737104</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.85720239728224</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S22" t="n">
-        <v>129.580409057085</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>133.5094004483942</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8828403766036</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7014543439408</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W22" t="n">
-        <v>192.0868093567038</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X22" t="n">
-        <v>131.2734664091499</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1484643722075</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.2976526835934</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8367027911203</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>260.2468526407957</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>287.4941810923746</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4398567618242</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>320.8665485352478</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>245.0386131358799</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>116.0397005905187</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.43292896126243</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S23" t="n">
-        <v>114.5838806063581</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6596605842441</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>156.9094639279492</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3160694902477</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8047797375258</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X23" t="n">
-        <v>275.2949116985818</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8017496761663</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72.09699466998009</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C24" t="n">
-        <v>78.27231000842849</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D24" t="n">
-        <v>53.0088765847515</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E24" t="n">
-        <v>63.2088914755137</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F24" t="n">
-        <v>50.63302341349663</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G24" t="n">
-        <v>42.90732818332339</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H24" t="n">
-        <v>17.79925525660921</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.721645172755885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>77.24698212395057</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T24" t="n">
-        <v>105.7285397149344</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U24" t="n">
-        <v>131.5051931010876</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
-        <v>138.364398169538</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W24" t="n">
-        <v>157.2587941810324</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X24" t="n">
-        <v>111.3367962235902</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2465067974171</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.39579120205005</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C25" t="n">
-        <v>72.81063211874059</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D25" t="n">
-        <v>54.17928403832511</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E25" t="n">
-        <v>51.99777366668192</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F25" t="n">
-        <v>50.984859043044</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G25" t="n">
-        <v>73.55479037857151</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H25" t="n">
-        <v>67.79098352755233</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01428594737104</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.85720239728224</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S25" t="n">
-        <v>129.580409057085</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>133.5094004483942</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8828403766036</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7014543439408</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W25" t="n">
-        <v>192.0868093567038</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X25" t="n">
-        <v>131.2734664091499</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1484643722075</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="26">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.3903245002699</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>227.9293746077969</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>217.3395244574723</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>244.5868529090511</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>269.5325285785008</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>277.9592203519244</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>202.1312849525565</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>73.13237240719528</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.52560077793905</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>71.67655242303471</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>85.75233240092072</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>114.0021357446259</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>190.4087413069243</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>211.8974515542024</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>232.3875835152584</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.894421492843</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.18966648665671</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>35.3649818251051</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>10.10154840142812</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>20.30156329219031</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>7.725695230173244</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>34.33965394062719</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>62.82121153161097</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>88.59786491776418</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>95.45706998621463</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>114.351465997709</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>68.42946804026684</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.33917861409373</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.48846301872666</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>29.9033039354172</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>11.27195585500172</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>9.090445483358536</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>8.077530859720611</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>30.64746219524812</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>24.88365534422894</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>18.10695776404765</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94987421395885</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>86.67308087376162</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>90.60207226507086</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>148.9755121932803</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>114.7941261606174</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>149.1794811733804</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>88.36613822582652</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.24113618888416</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.6202601976806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>245.1593103052076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>234.569460154883</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>261.8167886064618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>286.7624642759115</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G41" t="n">
-        <v>295.1891560493351</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>219.3612206499672</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>90.36230810460596</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.75553647534973</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>88.90648812044539</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>102.9822680983314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>131.2320714420366</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V41" t="n">
-        <v>207.638677004335</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>229.1273872516131</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X41" t="n">
-        <v>249.6175192126691</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.1243571902536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.41960218406739</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>52.59491752251579</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>27.3314840988388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>37.53149898960099</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>24.95563092758393</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>17.22993569741068</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818724</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.7523054594153</v>
       </c>
       <c r="S42" t="n">
-        <v>51.56958963803787</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>80.05114722902165</v>
+        <v>163.7592000015938</v>
       </c>
       <c r="U42" t="n">
-        <v>105.8278006151749</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>112.6870056836253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>131.5814016951197</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X42" t="n">
-        <v>85.65940373767752</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.56911431150441</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.71839871613734</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C43" t="n">
-        <v>47.13323963282788</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>28.5018915524124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>26.32038118076922</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>25.30746655713129</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>47.87739789265881</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>42.11359104163962</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>35.33689346145833</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344494</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846655</v>
       </c>
       <c r="R43" t="n">
-        <v>57.17980991136953</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>103.9030165711723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>107.8320079624815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U43" t="n">
-        <v>166.2054478906909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0240618580281</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W43" t="n">
-        <v>166.4094168707911</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X43" t="n">
-        <v>105.5960739232372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.47107188629484</v>
+        <v>182.179124658867</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818724</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.7523054594153</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015938</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344494</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846655</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.179124658867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336019.4605098184</v>
+        <v>447757.2763441282</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>455658.3304161282</v>
+        <v>447757.2763441282</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>455658.3304161282</v>
+        <v>468642.4575694172</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>455658.3304161282</v>
+        <v>468642.4575694172</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>455658.3304161282</v>
+        <v>468642.4575694172</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>447757.2763441283</v>
+        <v>447757.2763441282</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518183.6974777238</v>
+        <v>447757.2763441282</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518183.6974777238</v>
+        <v>482398.1654581948</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518183.6974777238</v>
+        <v>482398.1654581948</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518183.6974777238</v>
+        <v>482398.1654581949</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493626.559325632</v>
+        <v>359572.3596967139</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295645.3652114776</v>
+        <v>359572.3596967139</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811862</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811865</v>
-      </c>
-      <c r="C2" t="n">
-        <v>778312.5217811862</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
-        <v>256958.9834936198</v>
+        <v>408914.7838453712</v>
       </c>
       <c r="F2" t="n">
-        <v>419985.9195624691</v>
+        <v>408914.7838453705</v>
       </c>
       <c r="G2" t="n">
-        <v>419985.9195624691</v>
+        <v>438452.9154153268</v>
       </c>
       <c r="H2" t="n">
-        <v>419985.9195624692</v>
+        <v>438452.9154153267</v>
       </c>
       <c r="I2" t="n">
-        <v>419985.9195624693</v>
+        <v>438452.9154153268</v>
       </c>
       <c r="J2" t="n">
-        <v>408914.7838453705</v>
+        <v>408914.7838453709</v>
       </c>
       <c r="K2" t="n">
-        <v>510968.3625985231</v>
+        <v>408914.7838453708</v>
       </c>
       <c r="L2" t="n">
-        <v>510968.3625985231</v>
+        <v>458282.5866920233</v>
       </c>
       <c r="M2" t="n">
-        <v>510968.3625985233</v>
+        <v>458282.5866920233</v>
       </c>
       <c r="N2" t="n">
-        <v>510968.3625985233</v>
+        <v>458282.5866920231</v>
       </c>
       <c r="O2" t="n">
-        <v>474813.7547285043</v>
+        <v>288974.2797907824</v>
       </c>
       <c r="P2" t="n">
-        <v>204264.0705097482</v>
+        <v>288974.2797907823</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>17815.59346070628</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>57733.35772320352</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651716</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13783.94855792854</v>
+        <v>60663.9324346149</v>
       </c>
       <c r="K3" t="n">
-        <v>96090.86517263997</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458227</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>155263.5619376313</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="F4" t="n">
-        <v>253081.4492692742</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="G4" t="n">
-        <v>253081.4492692743</v>
+        <v>264157.660471655</v>
       </c>
       <c r="H4" t="n">
-        <v>253081.4492692742</v>
+        <v>264157.6604716549</v>
       </c>
       <c r="I4" t="n">
-        <v>253081.4492692742</v>
+        <v>264157.6604716549</v>
       </c>
       <c r="J4" t="n">
         <v>246440.2967349877</v>
       </c>
       <c r="K4" t="n">
-        <v>307640.6431213656</v>
+        <v>246440.2967349876</v>
       </c>
       <c r="L4" t="n">
-        <v>307640.6431213655</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="M4" t="n">
-        <v>307640.6431213655</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="N4" t="n">
-        <v>307640.6431213655</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="O4" t="n">
-        <v>285962.0368193249</v>
+        <v>174473.5068253956</v>
       </c>
       <c r="P4" t="n">
-        <v>123633.5163611634</v>
+        <v>174473.5068253956</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1872.173908310146</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7939.155971350141</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7939.155971350141</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="H5" t="n">
-        <v>7939.155971350141</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="I5" t="n">
-        <v>7939.155971350141</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>11546.33214439395</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>10097.82868024834</v>
+        <v>3060.576391710971</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.961849455</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.961849455</v>
+        <v>277068.9618494553</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.9618494553</v>
       </c>
       <c r="E6" t="n">
-        <v>82007.65418697201</v>
+        <v>83441.69530206584</v>
       </c>
       <c r="F6" t="n">
-        <v>101231.9565986412</v>
+        <v>154959.0015831972</v>
       </c>
       <c r="G6" t="n">
-        <v>158965.3143218446</v>
+        <v>154785.8552125905</v>
       </c>
       <c r="H6" t="n">
-        <v>158965.3143218448</v>
+        <v>165639.2290591076</v>
       </c>
       <c r="I6" t="n">
-        <v>158965.3143218449</v>
+        <v>165639.2290591077</v>
       </c>
       <c r="J6" t="n">
-        <v>141175.0530252687</v>
+        <v>94295.06914858264</v>
       </c>
       <c r="K6" t="n">
-        <v>95690.52216012363</v>
+        <v>154959.0015831975</v>
       </c>
       <c r="L6" t="n">
-        <v>191781.3873327636</v>
+        <v>143672.8324471025</v>
       </c>
       <c r="M6" t="n">
-        <v>191781.3873327639</v>
+        <v>172797.2554016847</v>
       </c>
       <c r="N6" t="n">
-        <v>191781.3873327638</v>
+        <v>172797.2554016846</v>
       </c>
       <c r="O6" t="n">
-        <v>178753.889228931</v>
+        <v>111440.1965736758</v>
       </c>
       <c r="P6" t="n">
-        <v>80630.55414858479</v>
+        <v>111440.1965736757</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H2" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I2" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>72.1666971540044</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814646</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.22993569741068</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="K2" t="n">
-        <v>120.1135814658</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>72.1666971540044</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814646</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>17.22993569741068</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="P2" t="n">
-        <v>120.1135814658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>22.26949182588285</v>
+        <v>29.1999052027249</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M12" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>16.38698455112248</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,40 +28405,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>65.78242794726972</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M15" t="n">
-        <v>69.4907805701034</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28448,31 +28450,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.43618897988725</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>94.43618897988725</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I18" t="n">
-        <v>94.43618897988725</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>79.20645423924323</v>
       </c>
       <c r="L18" t="n">
-        <v>69.4907805701034</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>94.43618897988725</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y18" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>94.43618897988725</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>79.20645423924323</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.43618897988725</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y21" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N22" t="n">
-        <v>59.26918328290438</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="24">
@@ -29114,37 +29116,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I24" t="n">
-        <v>94.43618897988725</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>79.20645423924323</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29153,37 +29155,37 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.43618897988725</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y24" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O25" t="n">
-        <v>50.36596745593841</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.43618897988725</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="26">
@@ -29317,7 +29319,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.39663285141508</v>
+        <v>76.81821214870351</v>
       </c>
       <c r="R26" t="n">
         <v>89.39663285141508</v>
@@ -29378,10 +29380,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29390,13 +29392,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>89.39663285141508</v>
@@ -29472,7 +29474,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="P28" t="n">
-        <v>47.67820418741942</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q28" t="n">
         <v>89.39663285141508</v>
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>89.39663285141484</v>
       </c>
       <c r="K30" t="n">
-        <v>93.37866902832873</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29827,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29849,52 +29851,52 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K33" t="n">
-        <v>90.00955927944771</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>137.3435171632106</v>
+        <v>12.71306423650077</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30086,52 +30088,52 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O36" t="n">
-        <v>137.3435171632106</v>
+        <v>12.71306423650077</v>
       </c>
       <c r="P36" t="n">
-        <v>90.00955927944909</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30323,52 +30325,52 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>87.3768639484525</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>24.79067432035136</v>
       </c>
       <c r="O39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>137.3435171632106</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322848</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y41" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K42" t="n">
-        <v>120.1135814658</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="M42" t="n">
-        <v>48.42508600825948</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="O42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.1135814658</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="45">
@@ -30773,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30806,43 +30808,43 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>36.40552869322866</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1543418.53528707</v>
+        <v>1489253.948956447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8112558.798638829</v>
+        <v>8112558.798638826</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5790007.41446905</v>
+        <v>5790007.414469049</v>
       </c>
     </row>
     <row r="11">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>151.8459993239614</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>49.1577469284591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>53.19961159302936</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>68.19197946706107</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.58514123460644</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,10 +9008,10 @@
         <v>37.44099381525162</v>
       </c>
       <c r="K15" t="n">
-        <v>72.05901102708927</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>49.1577469284591</v>
+        <v>72.77195183260446</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9026,7 +9026,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677112</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
@@ -9245,7 +9245,7 @@
         <v>23.87427650710517</v>
       </c>
       <c r="K18" t="n">
-        <v>58.63498473511576</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9254,7 +9254,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>28.37836192377178</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71615380440242</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>24.72219430567166</v>
       </c>
       <c r="O19" t="n">
-        <v>35.49318829228126</v>
+        <v>50.19856693805613</v>
       </c>
       <c r="P19" t="n">
         <v>34.76465388958609</v>
@@ -9403,22 +9403,22 @@
         <v>78.08255436712476</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>117.126500885419</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>199.2398520303649</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621252</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>128.269645595708</v>
       </c>
       <c r="Q20" t="n">
         <v>119.342339714888</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>23.87427650710517</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -9491,19 +9491,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>52.13525784409008</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>31.01105725476872</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71615380440242</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.03207127983458</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>26.04990801097385</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>31.92132612167676</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>35.96243378804353</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>24.72219430567166</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>35.49318829228126</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>34.76465388958609</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>48.54165146988431</v>
@@ -9722,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>59.34792554063095</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>39.17068376245679</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>39.63289428488291</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476872</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9807,7 +9807,7 @@
         <v>35.96243378804353</v>
       </c>
       <c r="N25" t="n">
-        <v>24.72219430567166</v>
+        <v>66.6927104315769</v>
       </c>
       <c r="O25" t="n">
         <v>35.49318829228126</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.64927167527121</v>
+        <v>104.2276923779817</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -9895,7 +9895,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.487477725746</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>37.44099381525162</v>
       </c>
       <c r="K27" t="n">
-        <v>48.44480612294392</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>49.1577469284591</v>
@@ -9974,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>37.44099381525186</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>72.77195183260446</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10205,13 +10205,13 @@
         <v>41.94507923191823</v>
       </c>
       <c r="O30" t="n">
-        <v>53.19961159302936</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>44.57777456291517</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.58514123460644</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,16 +10275,16 @@
         <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P31" t="n">
         <v>48.33137119773254</v>
@@ -10427,31 +10427,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.60218243017023</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>25.60599473786253</v>
       </c>
       <c r="L33" t="n">
-        <v>26.31893554337772</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>29.89858968552186</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>129.8831802079437</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P33" t="n">
         <v>21.73896317783378</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R33" t="n">
-        <v>33.44405972746749</v>
+        <v>36.30113605600951</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M34" t="n">
         <v>138.9257839476051</v>
@@ -10521,7 +10521,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>26.22109421534633</v>
       </c>
       <c r="P34" t="n">
         <v>25.49255981265115</v>
@@ -10603,7 +10603,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>118.9975515187731</v>
       </c>
       <c r="Q35" t="n">
         <v>110.070245637953</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>25.60599473786253</v>
+        <v>27.17123462657506</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>19.10626784683684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>129.8831802079437</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>21.73896317783378</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>27.74632984952505</v>
       </c>
       <c r="R36" t="n">
-        <v>33.44405972746749</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>25.49255981265115</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>39.26955739294938</v>
@@ -10904,19 +10904,19 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>25.60599473786253</v>
+        <v>30.46241889507581</v>
       </c>
       <c r="L39" t="n">
-        <v>26.31893554337772</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>29.89858968552186</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>106.5510377629819</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O39" t="n">
-        <v>30.36080020794797</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10986,16 +10986,16 @@
         <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>26.69033971110859</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>26.22109421534633</v>
       </c>
       <c r="P40" t="n">
         <v>25.49255981265115</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>144.6403758334578</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11141,7 +11141,7 @@
         <v>90.43209797343886</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811312</v>
       </c>
       <c r="L42" t="n">
         <v>102.1488510866463</v>
@@ -11156,7 +11156,7 @@
         <v>106.1907157512166</v>
       </c>
       <c r="P42" t="n">
-        <v>97.56887872110241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>92.60772947730754</v>
+        <v>92.60772947730688</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.6403758334584</v>
+        <v>144.6403758334578</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11378,25 +11378,25 @@
         <v>90.43209797343886</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811312</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866463</v>
       </c>
       <c r="M45" t="n">
-        <v>105.7285052287905</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1907157512158</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P45" t="n">
         <v>97.56887872110241</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.5762453927937</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>468642.4575694172</v>
+        <v>468642.4575694173</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>468642.4575694172</v>
+        <v>468642.4575694173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>468642.4575694172</v>
+        <v>468642.4575694173</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482398.1654581948</v>
+        <v>482398.1654581949</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482398.1654581948</v>
+        <v>482398.1654581949</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>778312.5217811862</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811861</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="E2" t="n">
-        <v>408914.7838453712</v>
+        <v>408914.7838453704</v>
       </c>
       <c r="F2" t="n">
-        <v>408914.7838453705</v>
+        <v>408914.7838453703</v>
       </c>
       <c r="G2" t="n">
         <v>438452.9154153268</v>
       </c>
       <c r="H2" t="n">
+        <v>438452.9154153269</v>
+      </c>
+      <c r="I2" t="n">
         <v>438452.9154153267</v>
       </c>
-      <c r="I2" t="n">
-        <v>438452.9154153268</v>
-      </c>
       <c r="J2" t="n">
-        <v>408914.7838453709</v>
+        <v>408914.7838453708</v>
       </c>
       <c r="K2" t="n">
-        <v>408914.7838453708</v>
+        <v>408914.7838453705</v>
       </c>
       <c r="L2" t="n">
-        <v>458282.5866920233</v>
+        <v>458282.5866920232</v>
       </c>
       <c r="M2" t="n">
-        <v>458282.5866920233</v>
+        <v>458282.5866920232</v>
       </c>
       <c r="N2" t="n">
-        <v>458282.5866920231</v>
+        <v>458282.5866920232</v>
       </c>
       <c r="O2" t="n">
+        <v>288974.2797907819</v>
+      </c>
+      <c r="P2" t="n">
         <v>288974.2797907824</v>
-      </c>
-      <c r="P2" t="n">
-        <v>288974.2797907823</v>
       </c>
     </row>
     <row r="3">
@@ -26429,22 +26429,22 @@
         <v>246440.2967349877</v>
       </c>
       <c r="F4" t="n">
-        <v>246440.2967349877</v>
+        <v>246440.2967349876</v>
       </c>
       <c r="G4" t="n">
         <v>264157.660471655</v>
       </c>
       <c r="H4" t="n">
-        <v>264157.6604716549</v>
+        <v>264157.660471655</v>
       </c>
       <c r="I4" t="n">
-        <v>264157.6604716549</v>
+        <v>264157.660471655</v>
       </c>
       <c r="J4" t="n">
         <v>246440.2967349877</v>
       </c>
       <c r="K4" t="n">
-        <v>246440.2967349876</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="L4" t="n">
         <v>276049.8097288206</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.961849455</v>
+        <v>277024.8260707739</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494553</v>
+        <v>277024.8260707738</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.9618494553</v>
+        <v>277024.8260707739</v>
       </c>
       <c r="E6" t="n">
-        <v>83441.69530206584</v>
+        <v>73676.56641980985</v>
       </c>
       <c r="F6" t="n">
-        <v>154959.0015831972</v>
+        <v>145193.8727009419</v>
       </c>
       <c r="G6" t="n">
-        <v>154785.8552125905</v>
+        <v>145798.0455821762</v>
       </c>
       <c r="H6" t="n">
-        <v>165639.2290591076</v>
+        <v>156651.4194286935</v>
       </c>
       <c r="I6" t="n">
-        <v>165639.2290591077</v>
+        <v>156651.4194286933</v>
       </c>
       <c r="J6" t="n">
-        <v>94295.06914858264</v>
+        <v>84529.94026632741</v>
       </c>
       <c r="K6" t="n">
-        <v>154959.0015831975</v>
+        <v>145193.872700942</v>
       </c>
       <c r="L6" t="n">
-        <v>143672.8324471025</v>
+        <v>135206.856271338</v>
       </c>
       <c r="M6" t="n">
-        <v>172797.2554016847</v>
+        <v>164331.2792259202</v>
       </c>
       <c r="N6" t="n">
-        <v>172797.2554016846</v>
+        <v>164331.2792259202</v>
       </c>
       <c r="O6" t="n">
-        <v>111440.1965736758</v>
+        <v>98518.73863735203</v>
       </c>
       <c r="P6" t="n">
-        <v>111440.1965736757</v>
+        <v>98518.73863735252</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.56671730814646</v>
+        <v>13.56671730814645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.56671730814646</v>
+        <v>13.56671730814645</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28113,7 +28113,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>29.1999052027249</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28198,22 +28198,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.78242794726917</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>89.39663285141508</v>
@@ -28432,25 +28432,25 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>65.78242794726972</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>89.39663285141508</v>
@@ -28596,7 +28596,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28669,7 +28669,7 @@
         <v>102.9633501595615</v>
       </c>
       <c r="K18" t="n">
-        <v>79.20645423924323</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9633501595615</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>102.9633501595615</v>
@@ -28760,7 +28760,7 @@
         <v>102.9633501595615</v>
       </c>
       <c r="O19" t="n">
-        <v>102.9633501595615</v>
+        <v>88.25797151378666</v>
       </c>
       <c r="P19" t="n">
         <v>102.9633501595615</v>
@@ -28827,22 +28827,22 @@
         <v>102.9633501595615</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>31.10638119690788</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q20" t="n">
         <v>102.9633501595615</v>
@@ -28900,10 +28900,10 @@
         <v>102.9633501595615</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>102.9633501595615</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28915,19 +28915,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>79.20645423924323</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9633501595615</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>102.9633501595615</v>
@@ -28982,25 +28982,25 @@
         <v>102.9633501595615</v>
       </c>
       <c r="J22" t="n">
-        <v>102.9633501595615</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>102.9633501595615</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.9633501595615</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>102.9633501595615</v>
@@ -29146,19 +29146,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>79.20645423924323</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>102.9633501595615</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>102.9633501595615</v>
       </c>
       <c r="N25" t="n">
-        <v>102.9633501595615</v>
+        <v>60.99283403365629</v>
       </c>
       <c r="O25" t="n">
         <v>102.9633501595615</v>
@@ -29298,28 +29298,28 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
+        <v>76.81821214870462</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>76.81821214870351</v>
       </c>
       <c r="R26" t="n">
         <v>89.39663285141508</v>
@@ -29380,7 +29380,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>89.39663285141508</v>
@@ -29398,7 +29398,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R27" t="n">
         <v>89.39663285141508</v>
@@ -29614,13 +29614,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>89.39663285141484</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>65.78242794726972</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29629,13 +29629,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="O30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>89.39663285141508</v>
@@ -29699,16 +29699,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P31" t="n">
         <v>89.39663285141508</v>
@@ -29851,31 +29851,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>112.2354442364965</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="M33" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>12.71306423650077</v>
       </c>
       <c r="P33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R33" t="n">
-        <v>112.2354442364965</v>
+        <v>109.3783679079544</v>
       </c>
       <c r="S33" t="n">
         <v>112.2354442364965</v>
@@ -29936,7 +29936,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P34" t="n">
         <v>112.2354442364965</v>
@@ -30027,7 +30027,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q35" t="n">
         <v>112.2354442364965</v>
@@ -30085,34 +30085,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
+        <v>110.6702043477839</v>
+      </c>
+      <c r="L36" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>12.71306423650077</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="R36" t="n">
-        <v>112.2354442364965</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>112.2354442364965</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>112.2354442364965</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>112.2354442364965</v>
@@ -30328,19 +30328,19 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
+        <v>107.3790200792832</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="L39" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="M39" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="N39" t="n">
-        <v>24.79067432035136</v>
-      </c>
       <c r="O39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -30410,16 +30410,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P40" t="n">
         <v>112.2354442364965</v>
@@ -30483,7 +30483,7 @@
         <v>36.40552869322784</v>
       </c>
       <c r="J41" t="n">
-        <v>36.40552869322848</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30565,7 +30565,7 @@
         <v>36.40552869322784</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="L42" t="n">
         <v>36.40552869322784</v>
@@ -30580,7 +30580,7 @@
         <v>36.40552869322784</v>
       </c>
       <c r="P42" t="n">
-        <v>36.40552869322784</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>36.40552869322784</v>
       </c>
       <c r="K43" t="n">
-        <v>36.40552869322784</v>
+        <v>36.4055286932285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30720,7 +30720,7 @@
         <v>36.40552869322784</v>
       </c>
       <c r="J44" t="n">
-        <v>36.40552869322784</v>
+        <v>36.40552869322848</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30802,25 +30802,25 @@
         <v>36.40552869322784</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>36.40552869322784</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>36.40552869322866</v>
       </c>
       <c r="P45" t="n">
         <v>36.40552869322784</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.40552869322784</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>36.40552869322784</v>
